--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125111a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125111a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que não procuraram a polícia em decorrência do último furto, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,9 +94,6 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
@@ -125,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -488,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,28 +532,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>2.051494524248216</v>
+      </c>
+      <c r="C5">
+        <v>3.631486078463136</v>
+      </c>
+      <c r="D5">
+        <v>3.656004130485909</v>
+      </c>
+      <c r="E5">
+        <v>3.492951361532723</v>
+      </c>
+      <c r="F5">
+        <v>4.972848761023728</v>
+      </c>
+      <c r="G5">
+        <v>5.3019217418973</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.051494524248216</v>
+        <v>2.506659458752377</v>
       </c>
       <c r="C6">
-        <v>3.631486078463136</v>
+        <v>4.373079662661997</v>
       </c>
       <c r="D6">
-        <v>3.656004130485909</v>
+        <v>3.912631328110132</v>
       </c>
       <c r="E6">
-        <v>3.492951361532723</v>
+        <v>4.351867748274814</v>
       </c>
       <c r="F6">
-        <v>4.972848761023728</v>
+        <v>4.811536148526288</v>
       </c>
       <c r="G6">
-        <v>5.3019217418973</v>
+        <v>5.374936460971717</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -582,50 +579,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2.506659458752377</v>
+        <v>2.450146756791028</v>
       </c>
       <c r="C7">
-        <v>4.373079662661997</v>
+        <v>4.277056639898521</v>
       </c>
       <c r="D7">
-        <v>3.912631328110132</v>
+        <v>4.411089175505722</v>
       </c>
       <c r="E7">
-        <v>4.351867748274814</v>
+        <v>4.096525020407352</v>
       </c>
       <c r="F7">
-        <v>4.811536148526288</v>
+        <v>5.620785376293106</v>
       </c>
       <c r="G7">
-        <v>5.374936460971717</v>
+        <v>5.960585746288166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>2.496798156088547</v>
+      </c>
+      <c r="C8">
+        <v>4.178864449019014</v>
+      </c>
+      <c r="D8">
+        <v>3.865011161404441</v>
+      </c>
+      <c r="E8">
+        <v>4.049750347274177</v>
+      </c>
+      <c r="F8">
+        <v>4.805357085879648</v>
+      </c>
+      <c r="G8">
+        <v>5.263366758404278</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.450146756791028</v>
+        <v>5.089343537172507</v>
       </c>
       <c r="C9">
-        <v>4.277056639898521</v>
+        <v>8.743739400122479</v>
       </c>
       <c r="D9">
-        <v>4.411089175505722</v>
+        <v>8.347770295782187</v>
       </c>
       <c r="E9">
-        <v>4.096525020407352</v>
+        <v>9.304979703344396</v>
       </c>
       <c r="F9">
-        <v>5.620785376293106</v>
+        <v>10.5868603048986</v>
       </c>
       <c r="G9">
-        <v>5.960585746288166</v>
+        <v>12.15616492420394</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -633,22 +648,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.496798156088547</v>
+        <v>2.545492186974562</v>
       </c>
       <c r="C10">
-        <v>4.178864449019014</v>
+        <v>4.462205754923382</v>
       </c>
       <c r="D10">
-        <v>3.865011161404441</v>
+        <v>4.196888611681493</v>
       </c>
       <c r="E10">
-        <v>4.049750347274177</v>
+        <v>4.18190267749442</v>
       </c>
       <c r="F10">
-        <v>4.805357085879648</v>
+        <v>4.988420440389711</v>
       </c>
       <c r="G10">
-        <v>5.263366758404278</v>
+        <v>5.666746983856984</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -656,22 +671,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5.089343537172507</v>
+        <v>2.817902896381845</v>
       </c>
       <c r="C11">
-        <v>8.743739400122479</v>
+        <v>5.78290636764385</v>
       </c>
       <c r="D11">
-        <v>8.347770295782187</v>
+        <v>4.501849142369176</v>
       </c>
       <c r="E11">
-        <v>9.304979703344396</v>
+        <v>5.313506681368112</v>
       </c>
       <c r="F11">
-        <v>10.5868603048986</v>
+        <v>7.090034468463053</v>
       </c>
       <c r="G11">
-        <v>12.15616492420394</v>
+        <v>7.730198685175589</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -679,50 +694,68 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.545492186974562</v>
+        <v>3.187854980457037</v>
       </c>
       <c r="C12">
-        <v>4.462205754923382</v>
+        <v>5.552515278781319</v>
       </c>
       <c r="D12">
-        <v>4.196888611681493</v>
+        <v>5.644048132127064</v>
       </c>
       <c r="E12">
-        <v>4.18190267749442</v>
+        <v>5.651475888225013</v>
       </c>
       <c r="F12">
-        <v>4.988420440389711</v>
+        <v>7.408019072067347</v>
       </c>
       <c r="G12">
-        <v>5.666746983856984</v>
+        <v>7.746226966982805</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>4.275846816633675</v>
+      </c>
+      <c r="C13">
+        <v>7.440970985348981</v>
+      </c>
+      <c r="D13">
+        <v>8.346909822242882</v>
+      </c>
+      <c r="E13">
+        <v>7.986133054487353</v>
+      </c>
+      <c r="F13">
+        <v>10.33719004035652</v>
+      </c>
+      <c r="G13">
+        <v>11.47167760120413</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2.817902896381845</v>
+        <v>3.414892216859993</v>
       </c>
       <c r="C14">
-        <v>5.78290636764385</v>
+        <v>5.873590483935956</v>
       </c>
       <c r="D14">
-        <v>4.501849142369176</v>
+        <v>6.567071904804537</v>
       </c>
       <c r="E14">
-        <v>5.313506681368112</v>
+        <v>6.301026195492674</v>
       </c>
       <c r="F14">
-        <v>7.090034468463053</v>
+        <v>7.29097674690886</v>
       </c>
       <c r="G14">
-        <v>7.730198685175589</v>
+        <v>8.680155665980713</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -730,22 +763,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>3.187854980457037</v>
+        <v>2.862480823750456</v>
       </c>
       <c r="C15">
-        <v>5.552515278781319</v>
+        <v>5.424609918370357</v>
       </c>
       <c r="D15">
-        <v>5.644048132127064</v>
+        <v>5.327989660923917</v>
       </c>
       <c r="E15">
-        <v>5.651475888225013</v>
+        <v>5.181532467388179</v>
       </c>
       <c r="F15">
-        <v>7.408019072067347</v>
+        <v>6.133596232096138</v>
       </c>
       <c r="G15">
-        <v>7.746226966982805</v>
+        <v>7.631949078754748</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -753,22 +786,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4.275846816633675</v>
+        <v>4.761748870594536</v>
       </c>
       <c r="C16">
-        <v>7.440970985348981</v>
+        <v>8.196208051883891</v>
       </c>
       <c r="D16">
-        <v>8.346909822242882</v>
+        <v>9.064206762850208</v>
       </c>
       <c r="E16">
-        <v>7.986133054487353</v>
+        <v>9.955806556866561</v>
       </c>
       <c r="F16">
-        <v>10.33719004035652</v>
+        <v>8.620127481600058</v>
       </c>
       <c r="G16">
-        <v>11.47167760120413</v>
+        <v>12.72151093908895</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -776,22 +809,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>3.414892216859993</v>
+        <v>2.707453794747041</v>
       </c>
       <c r="C17">
-        <v>5.873590483935956</v>
+        <v>4.668748573534919</v>
       </c>
       <c r="D17">
-        <v>6.567071904804537</v>
+        <v>4.618408176627702</v>
       </c>
       <c r="E17">
-        <v>6.301026195492674</v>
+        <v>5.025491599343983</v>
       </c>
       <c r="F17">
-        <v>7.29097674690886</v>
+        <v>5.294978994759665</v>
       </c>
       <c r="G17">
-        <v>8.680155665980713</v>
+        <v>6.636370266785139</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -799,50 +832,68 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>2.862480823750456</v>
+        <v>3.920794980621553</v>
       </c>
       <c r="C18">
-        <v>5.424609918370357</v>
+        <v>7.887593029506043</v>
       </c>
       <c r="D18">
-        <v>5.327989660923917</v>
+        <v>7.731015171554331</v>
       </c>
       <c r="E18">
-        <v>5.181532467388179</v>
+        <v>8.060949752972853</v>
       </c>
       <c r="F18">
-        <v>6.133596232096138</v>
+        <v>10.28302609579265</v>
       </c>
       <c r="G18">
-        <v>7.631949078754748</v>
+        <v>11.40982337843333</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>4.336783380841961</v>
+      </c>
+      <c r="C19">
+        <v>8.26738998081964</v>
+      </c>
+      <c r="D19">
+        <v>8.281711962024289</v>
+      </c>
+      <c r="E19">
+        <v>7.884826196447824</v>
+      </c>
+      <c r="F19">
+        <v>11.78261803493402</v>
+      </c>
+      <c r="G19">
+        <v>12.33272488187957</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>4.761748870594536</v>
+        <v>2.907378776226125</v>
       </c>
       <c r="C20">
-        <v>8.196208051883891</v>
+        <v>5.68367071670098</v>
       </c>
       <c r="D20">
-        <v>9.064206762850208</v>
+        <v>5.088385145513238</v>
       </c>
       <c r="E20">
-        <v>9.955806556866561</v>
+        <v>5.452910059441478</v>
       </c>
       <c r="F20">
-        <v>8.620127481600058</v>
+        <v>8.120174500544488</v>
       </c>
       <c r="G20">
-        <v>12.72151093908895</v>
+        <v>7.669364643232229</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -850,22 +901,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.707453794747041</v>
+        <v>5.453568110996772</v>
       </c>
       <c r="C21">
-        <v>4.668748573534919</v>
+        <v>11.19307391367019</v>
       </c>
       <c r="D21">
-        <v>4.618408176627702</v>
+        <v>10.03054475105882</v>
       </c>
       <c r="E21">
-        <v>5.025491599343983</v>
+        <v>9.761983823055147</v>
       </c>
       <c r="F21">
-        <v>5.294978994759665</v>
+        <v>16.67071557034119</v>
       </c>
       <c r="G21">
-        <v>6.636370266785139</v>
+        <v>14.90726739456601</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -873,22 +924,22 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>3.920794980621553</v>
+        <v>5.065676068590178</v>
       </c>
       <c r="C22">
-        <v>7.887593029506043</v>
+        <v>9.643998051565788</v>
       </c>
       <c r="D22">
-        <v>7.731015171554331</v>
+        <v>8.5578611885451</v>
       </c>
       <c r="E22">
-        <v>8.060949752972853</v>
+        <v>8.692084247761821</v>
       </c>
       <c r="F22">
-        <v>10.28302609579265</v>
+        <v>14.55010883946947</v>
       </c>
       <c r="G22">
-        <v>11.40982337843333</v>
+        <v>11.48361351469801</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -896,22 +947,22 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>4.336783380841961</v>
+        <v>1.919315181183303</v>
       </c>
       <c r="C23">
-        <v>8.26738998081964</v>
+        <v>3.325995935285056</v>
       </c>
       <c r="D23">
-        <v>8.281711962024289</v>
+        <v>2.977804685688005</v>
       </c>
       <c r="E23">
-        <v>7.884826196447824</v>
+        <v>3.063702332735952</v>
       </c>
       <c r="F23">
-        <v>11.78261803493402</v>
+        <v>3.815711779363741</v>
       </c>
       <c r="G23">
-        <v>12.33272488187957</v>
+        <v>4.165275450557742</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -919,22 +970,22 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2.907378776226125</v>
+        <v>5.00506667303628</v>
       </c>
       <c r="C24">
-        <v>5.68367071670098</v>
+        <v>8.282080729470994</v>
       </c>
       <c r="D24">
-        <v>5.088385145513238</v>
+        <v>9.905058651657148</v>
       </c>
       <c r="E24">
-        <v>5.452910059441478</v>
+        <v>11.63674527836598</v>
       </c>
       <c r="F24">
-        <v>8.120174500544488</v>
+        <v>10.60909941982858</v>
       </c>
       <c r="G24">
-        <v>7.669364643232229</v>
+        <v>13.68933045082855</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -942,22 +993,22 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>5.453568110996772</v>
+        <v>3.952040021923926</v>
       </c>
       <c r="C25">
-        <v>11.19307391367019</v>
+        <v>7.206868749724079</v>
       </c>
       <c r="D25">
-        <v>10.03054475105882</v>
+        <v>6.400369249405805</v>
       </c>
       <c r="E25">
-        <v>9.761983823055147</v>
+        <v>7.095419868700313</v>
       </c>
       <c r="F25">
-        <v>16.67071557034119</v>
+        <v>8.895272103491701</v>
       </c>
       <c r="G25">
-        <v>14.90726739456601</v>
+        <v>10.27487557655688</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -965,175 +1016,68 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>5.065676068590178</v>
+        <v>3.128668819018493</v>
       </c>
       <c r="C26">
-        <v>9.643998051565788</v>
+        <v>5.226096906159266</v>
       </c>
       <c r="D26">
-        <v>8.5578611885451</v>
+        <v>5.290909089639102</v>
       </c>
       <c r="E26">
-        <v>8.692084247761821</v>
+        <v>5.634223429645613</v>
       </c>
       <c r="F26">
-        <v>14.55010883946947</v>
+        <v>6.574771281554779</v>
       </c>
       <c r="G26">
-        <v>11.48361351469801</v>
+        <v>8.188074030850636</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>2.896631428888782</v>
+      </c>
+      <c r="C27">
+        <v>5.702821849024748</v>
+      </c>
+      <c r="D27">
+        <v>5.145306899434332</v>
+      </c>
+      <c r="E27">
+        <v>5.124705218820028</v>
+      </c>
+      <c r="F27">
+        <v>6.544643948662706</v>
+      </c>
+      <c r="G27">
+        <v>7.166393307150098</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>1.919315181183303</v>
+        <v>3.428972596593953</v>
       </c>
       <c r="C28">
-        <v>3.325995935285056</v>
+        <v>6.448767426451597</v>
       </c>
       <c r="D28">
-        <v>2.977804685688005</v>
+        <v>5.861372464856991</v>
       </c>
       <c r="E28">
-        <v>3.063702332735952</v>
+        <v>5.534773353408903</v>
       </c>
       <c r="F28">
-        <v>3.815711779363741</v>
+        <v>8.394080285523881</v>
       </c>
       <c r="G28">
-        <v>4.165275450557742</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>5.00506667303628</v>
-      </c>
-      <c r="C29">
-        <v>8.282080729470994</v>
-      </c>
-      <c r="D29">
-        <v>9.905058651657148</v>
-      </c>
-      <c r="E29">
-        <v>11.63674527836598</v>
-      </c>
-      <c r="F29">
-        <v>10.60909941982858</v>
-      </c>
-      <c r="G29">
-        <v>13.68933045082855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>3.952040021923926</v>
-      </c>
-      <c r="C30">
-        <v>7.206868749724079</v>
-      </c>
-      <c r="D30">
-        <v>6.400369249405805</v>
-      </c>
-      <c r="E30">
-        <v>7.095419868700313</v>
-      </c>
-      <c r="F30">
-        <v>8.895272103491701</v>
-      </c>
-      <c r="G30">
-        <v>10.27487557655688</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>3.128668819018493</v>
-      </c>
-      <c r="C31">
-        <v>5.226096906159266</v>
-      </c>
-      <c r="D31">
-        <v>5.290909089639102</v>
-      </c>
-      <c r="E31">
-        <v>5.634223429645613</v>
-      </c>
-      <c r="F31">
-        <v>6.574771281554779</v>
-      </c>
-      <c r="G31">
-        <v>8.188074030850636</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>2.896631428888782</v>
-      </c>
-      <c r="C32">
-        <v>5.702821849024748</v>
-      </c>
-      <c r="D32">
-        <v>5.145306899434332</v>
-      </c>
-      <c r="E32">
-        <v>5.124705218820028</v>
-      </c>
-      <c r="F32">
-        <v>6.544643948662706</v>
-      </c>
-      <c r="G32">
-        <v>7.166393307150098</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>3.428972596593953</v>
-      </c>
-      <c r="C33">
-        <v>6.448767426451597</v>
-      </c>
-      <c r="D33">
-        <v>5.861372464856991</v>
-      </c>
-      <c r="E33">
-        <v>5.534773353408903</v>
-      </c>
-      <c r="F33">
-        <v>8.394080285523881</v>
-      </c>
-      <c r="G33">
         <v>8.657905250537556</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
